--- a/Anaheim.xlsx
+++ b/Anaheim.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -471,31 +477,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0182258218073916</v>
+        <v>0.1416479967586096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0245227788828606</v>
+        <v>0.1676145534843051</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0259054721510557</v>
+        <v>0.1816056544610492</v>
       </c>
       <c r="E2" t="n">
-        <v>0.025502428847761</v>
+        <v>0.1717796738427407</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0271846553105135</v>
+        <v>0.1806938988889073</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0289083895512521</v>
+        <v>0.197875053086659</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0292303029627632</v>
+        <v>0.1686171467547355</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0276368969614218</v>
+        <v>0.1710028606501674</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0379971536757389</v>
+        <v>0.1442706395381127</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.161649701817723</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1455050767778137</v>
       </c>
     </row>
     <row r="3">
@@ -505,31 +517,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0183525260724534</v>
+        <v>0.1311681643614958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.024477997842136</v>
+        <v>0.1536481188455141</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0262181482170644</v>
+        <v>0.1570001430636062</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0258716217281354</v>
+        <v>0.156092613605579</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0271507201407379</v>
+        <v>0.1613768579988129</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0294838762499362</v>
+        <v>0.1694919748812487</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0296647240801919</v>
+        <v>0.1674258946950562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0275206441515661</v>
+        <v>0.1645131479560365</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03850208878839</v>
+        <v>0.1909204737999407</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2347972943644358</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1354230858627253</v>
       </c>
     </row>
     <row r="4">
@@ -539,31 +557,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0297718113</v>
+        <v>0.0251474893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0345460774</v>
+        <v>0.03233052</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0308777708999999</v>
+        <v>0.0310928879999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0397062622</v>
+        <v>0.0390645321</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0402536648</v>
+        <v>0.0405810655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.041202305</v>
+        <v>0.0307912167</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0442461031</v>
+        <v>0.0527011181999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0449740742</v>
+        <v>0.0434748763999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09100198</v>
+        <v>0.09094375490000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1323098892</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2445415487</v>
       </c>
     </row>
     <row r="5">
@@ -581,6 +605,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -593,7 +619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +655,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -637,31 +669,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0079309986353268</v>
+        <v>0.0091767621677882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0102146219988084</v>
+        <v>0.0126815816826207</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0103751151697287</v>
+        <v>0.0136023607909506</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0112233210163918</v>
+        <v>0.0126590446736734</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0116215710888588</v>
+        <v>0.0146245407375791</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0119180797612574</v>
+        <v>0.0186444497523609</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0125446740228074</v>
+        <v>0.0149168806977097</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0119534396582186</v>
+        <v>0.0128486936133055</v>
       </c>
       <c r="J2" t="n">
-        <v>0.016104213883986</v>
+        <v>0.0100663286175858</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0108986081853278</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.009664624952021099</v>
       </c>
     </row>
     <row r="3">
@@ -697,6 +735,12 @@
       <c r="J3" t="n">
         <v>0.016057833159433</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.0258957253123784</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.008395540314722</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -705,31 +749,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0158584252</v>
+        <v>0.01400673254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0185529469</v>
+        <v>0.01779903835</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01593781646</v>
+        <v>0.015058882</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0219538733999999</v>
+        <v>0.0221375878</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0205396554</v>
+        <v>0.0214828773</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0202975174</v>
+        <v>0.0163214785999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0223119221</v>
+        <v>0.0256711475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0243143256</v>
+        <v>0.0218387003</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0437078187</v>
+        <v>0.0479038442999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0738470359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1137946938</v>
       </c>
     </row>
     <row r="5">
@@ -747,6 +797,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -759,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +847,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -803,31 +861,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9173913742568482</v>
+        <v>0.9129381666302951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9044129292452292</v>
+        <v>0.942371354990188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.917552372541501</v>
+        <v>0.9305682719614417</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8924757867843361</v>
+        <v>0.909880230529848</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9251649293266334</v>
+        <v>0.9169333199535132</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9261842502552058</v>
+        <v>0.9266494327330904</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9378839388229336</v>
+        <v>0.913186313970062</v>
       </c>
       <c r="I2" t="n">
-        <v>0.917691965884882</v>
+        <v>0.907221404285442</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9267723812437452</v>
+        <v>0.9020890167424612</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8993068969704447</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9098822342552816</v>
       </c>
     </row>
     <row r="3">
@@ -863,6 +927,12 @@
       <c r="J3" t="n">
         <v>0.9267105099864644</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.9018502063939746</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9163697822918886</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -871,31 +941,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8240114840535157</v>
+        <v>0.8590496517597052</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8374075646671562</v>
+        <v>0.8162351847136391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8969855503182492</v>
+        <v>0.8937600228899129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7206266521656171</v>
+        <v>0.787637525197991</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8623959309009924</v>
+        <v>0.814725068597569</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8813801445743238</v>
+        <v>0.9308927476872708</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8500785387899299</v>
+        <v>0.7944798042038623</v>
       </c>
       <c r="I4" t="n">
-        <v>0.799127919965698</v>
+        <v>0.7894852998925626</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7638241900252207</v>
+        <v>0.7114011971523049</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5747396804833298</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.383700770414617</v>
       </c>
     </row>
     <row r="5">
@@ -913,6 +989,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
